--- a/pred_ohlcv/54_21/2020-01-15 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2449.107383792546</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2569.087383792546</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2825.778231981272</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2731.446331981273</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2716.446331981273</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2723.946331981273</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2774.946331981273</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2766.119131981272</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2766.119131981272</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2611.407431576414</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2611.287431576414</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2597.341931576414</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2610.340931576414</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2610.090731576414</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2609.760731576414</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2609.610731576414</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2607.110731576414</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2602.991431576414</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2559.916731576414</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2518.855931576414</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2267.411731576414</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2367.411731576414</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2419.455231576414</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2319.455231576414</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1879.865131576414</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1876.080231576414</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>27563.95957239528</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>28039.00347239528</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>26864.52927239528</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26799.49577239528</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>27110.36587239528</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>29599.44447239528</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>30066.35527239528</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>29984.24947239528</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>29630.91697239528</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>30141.50847239528</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>29749.33537216783</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>30440.46917216783</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>26610.11167216783</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>26165.46787216783</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26017.10217216783</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>25929.20087216783</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>24991.63618897328</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>25034.89248897328</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>25061.44128897328</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24875.48318897328</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>25369.98588897329</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>26041.24658897328</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>29010.07678897329</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>32214.59722068256</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>32445.62382068256</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>32337.62382068256</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>31703.02202068256</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>31743.02202068256</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>31733.02202068256</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>31827.39882068256</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>32800.81872068256</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>35592.46412068256</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>38145.96282068256</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>40669.37932068256</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>42683.04562068255</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>43560.94149015319</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>47975.07049015319</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>48866.52582190264</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>48639.36862190264</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>48823.43839008119</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>63678.58637977225</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>64251.76259862077</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2449.107383792546</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2569.087383792546</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2607.110731576414</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2602.991431576414</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2559.916731576414</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2518.855931576414</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2267.411731576414</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2367.411731576414</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2419.455231576414</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2319.455231576414</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1879.865131576414</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1876.080231576414</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>27563.95957239528</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>28039.00347239528</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>26864.52927239528</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26799.49577239528</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>27110.36587239528</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>29599.44447239528</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>30066.35527239528</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>29984.24947239528</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>29630.91697239528</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>30141.50847239528</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>29749.33537216783</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>30440.46917216783</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>26610.11167216783</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>26165.46787216783</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26017.10217216783</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>25929.20087216783</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>24991.63618897328</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>25034.89248897328</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>25061.44128897328</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24875.48318897328</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>25369.98588897329</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>26041.24658897328</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>29010.07678897329</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>32214.59722068256</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>32445.62382068256</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>32337.62382068256</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>31703.02202068256</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>31743.02202068256</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>31733.02202068256</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>31827.39882068256</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>32800.81872068256</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>35592.46412068256</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>38145.96282068256</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>40669.37932068256</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>42683.04562068255</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>43560.94149015319</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>47975.07049015319</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>48866.52582190264</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>48639.36862190264</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>48823.43839008119</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>63678.58637977225</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>64251.76259862077</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
